--- a/CALIBRACAO PIC.xlsx
+++ b/CALIBRACAO PIC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diefra\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diefra\Documents\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA0EF67-8EA1-4FD1-B7DA-C62541A3F725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7826528E-5FC3-4088-B24F-CF97C249AE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" activeTab="2" xr2:uid="{6B6C355F-BA13-4D4E-8103-F15D3EA508CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{6B6C355F-BA13-4D4E-8103-F15D3EA508CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,15 +180,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -401,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -413,7 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,112 +786,112 @@
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="11">
         <v>15</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="12"/>
       <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <v>103</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="12"/>
       <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="11">
         <v>9</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="12"/>
       <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="11">
         <v>100</v>
       </c>
-      <c r="O1" s="13"/>
+      <c r="O1" s="12"/>
       <c r="Q1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="12">
+      <c r="R1" s="11">
         <v>77</v>
       </c>
-      <c r="S1" s="13"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>140.41999999999999</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="14"/>
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>131.35</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="14"/>
       <c r="I2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>129.82</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="14"/>
       <c r="M2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="13">
         <v>138.5</v>
       </c>
-      <c r="O2" s="15"/>
+      <c r="O2" s="14"/>
       <c r="Q2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="13">
         <v>133</v>
       </c>
-      <c r="S2" s="15"/>
+      <c r="S2" s="14"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>497.63</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="14"/>
       <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>522.9</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="14"/>
       <c r="I3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>506.17</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="14"/>
       <c r="M3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <v>522.01</v>
       </c>
-      <c r="O3" s="15"/>
+      <c r="O3" s="14"/>
       <c r="Q3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="13">
         <v>508.71</v>
       </c>
-      <c r="S3" s="15"/>
+      <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2358,112 +2348,112 @@
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>76</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="12"/>
       <c r="E33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>75</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="12"/>
       <c r="I33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>101</v>
       </c>
-      <c r="K33" s="13"/>
+      <c r="K33" s="12"/>
       <c r="M33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="11">
         <v>14</v>
       </c>
-      <c r="O33" s="13"/>
+      <c r="O33" s="12"/>
       <c r="Q33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R33" s="12">
+      <c r="R33" s="11">
         <v>74</v>
       </c>
-      <c r="S33" s="13"/>
+      <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <v>129</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="14"/>
       <c r="E34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="13">
         <v>127.38</v>
       </c>
-      <c r="G34" s="15"/>
+      <c r="G34" s="14"/>
       <c r="I34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="13">
         <v>131.09</v>
       </c>
-      <c r="K34" s="15"/>
+      <c r="K34" s="14"/>
       <c r="M34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="13">
         <v>119.71</v>
       </c>
-      <c r="O34" s="15"/>
+      <c r="O34" s="14"/>
       <c r="Q34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34" s="13">
         <v>137.91</v>
       </c>
-      <c r="S34" s="15"/>
+      <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="13">
         <v>531.22</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="14"/>
       <c r="E35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="13">
         <v>529.17999999999995</v>
       </c>
-      <c r="G35" s="15"/>
+      <c r="G35" s="14"/>
       <c r="I35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="13">
         <v>527.53</v>
       </c>
-      <c r="K35" s="15"/>
+      <c r="K35" s="14"/>
       <c r="M35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="13">
         <v>512.79</v>
       </c>
-      <c r="O35" s="15"/>
+      <c r="O35" s="14"/>
       <c r="Q35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="13">
         <v>537.29999999999995</v>
       </c>
-      <c r="S35" s="15"/>
+      <c r="S35" s="14"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -3920,112 +3910,112 @@
       <c r="A65" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="11">
         <v>80</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C65" s="12"/>
       <c r="E65" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="11">
         <v>67</v>
       </c>
-      <c r="G65" s="13"/>
+      <c r="G65" s="12"/>
       <c r="I65" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="11">
         <v>54</v>
       </c>
-      <c r="K65" s="13"/>
+      <c r="K65" s="12"/>
       <c r="M65" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N65" s="12">
+      <c r="N65" s="11">
         <v>81</v>
       </c>
-      <c r="O65" s="13"/>
+      <c r="O65" s="12"/>
       <c r="Q65" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R65" s="12">
+      <c r="R65" s="11">
         <v>13</v>
       </c>
-      <c r="S65" s="13"/>
+      <c r="S65" s="12"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="13">
         <v>127</v>
       </c>
-      <c r="C66" s="15"/>
+      <c r="C66" s="14"/>
       <c r="E66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="13">
         <v>151.5</v>
       </c>
-      <c r="G66" s="15"/>
+      <c r="G66" s="14"/>
       <c r="I66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="13">
         <v>136.38999999999999</v>
       </c>
-      <c r="K66" s="15"/>
+      <c r="K66" s="14"/>
       <c r="M66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N66" s="14">
+      <c r="N66" s="13">
         <v>137.13999999999999</v>
       </c>
-      <c r="O66" s="15"/>
+      <c r="O66" s="14"/>
       <c r="Q66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R66" s="14">
+      <c r="R66" s="13">
         <v>142.11000000000001</v>
       </c>
-      <c r="S66" s="15"/>
+      <c r="S66" s="14"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="13">
         <v>522.77</v>
       </c>
-      <c r="C67" s="15"/>
+      <c r="C67" s="14"/>
       <c r="E67" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="13">
         <v>512.55999999999995</v>
       </c>
-      <c r="G67" s="15"/>
+      <c r="G67" s="14"/>
       <c r="I67" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="13">
         <v>507.49</v>
       </c>
-      <c r="K67" s="15"/>
+      <c r="K67" s="14"/>
       <c r="M67" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N67" s="14">
+      <c r="N67" s="13">
         <v>524.69000000000005</v>
       </c>
-      <c r="O67" s="15"/>
+      <c r="O67" s="14"/>
       <c r="Q67" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R67" s="14">
+      <c r="R67" s="13">
         <v>541.4</v>
       </c>
-      <c r="S67" s="15"/>
+      <c r="S67" s="14"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
@@ -5482,112 +5472,112 @@
       <c r="A97" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="11">
         <v>7</v>
       </c>
-      <c r="C97" s="13"/>
+      <c r="C97" s="12"/>
       <c r="E97" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F97" s="12">
+      <c r="F97" s="11">
         <v>5</v>
       </c>
-      <c r="G97" s="13"/>
+      <c r="G97" s="12"/>
       <c r="I97" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J97" s="12">
+      <c r="J97" s="11">
         <v>19</v>
       </c>
-      <c r="K97" s="13"/>
+      <c r="K97" s="12"/>
       <c r="M97" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N97" s="12">
+      <c r="N97" s="11">
         <v>16</v>
       </c>
-      <c r="O97" s="13"/>
+      <c r="O97" s="12"/>
       <c r="Q97" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R97" s="12">
+      <c r="R97" s="11">
         <v>12</v>
       </c>
-      <c r="S97" s="13"/>
+      <c r="S97" s="12"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B98" s="14">
+      <c r="B98" s="13">
         <v>135.35</v>
       </c>
-      <c r="C98" s="15"/>
+      <c r="C98" s="14"/>
       <c r="E98" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F98" s="14">
+      <c r="F98" s="13">
         <v>130.74</v>
       </c>
-      <c r="G98" s="15"/>
+      <c r="G98" s="14"/>
       <c r="I98" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J98" s="14">
+      <c r="J98" s="13">
         <v>145.22999999999999</v>
       </c>
-      <c r="K98" s="15"/>
+      <c r="K98" s="14"/>
       <c r="M98" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N98" s="14">
+      <c r="N98" s="13">
         <v>129.25</v>
       </c>
-      <c r="O98" s="15"/>
+      <c r="O98" s="14"/>
       <c r="Q98" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R98" s="14">
+      <c r="R98" s="13">
         <v>128.58000000000001</v>
       </c>
-      <c r="S98" s="15"/>
+      <c r="S98" s="14"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="14">
+      <c r="B99" s="13">
         <v>550.63</v>
       </c>
-      <c r="C99" s="15"/>
+      <c r="C99" s="14"/>
       <c r="E99" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F99" s="14">
+      <c r="F99" s="13">
         <v>504.08</v>
       </c>
-      <c r="G99" s="15"/>
+      <c r="G99" s="14"/>
       <c r="I99" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J99" s="14">
+      <c r="J99" s="13">
         <v>496.26</v>
       </c>
-      <c r="K99" s="15"/>
+      <c r="K99" s="14"/>
       <c r="M99" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N99" s="14">
+      <c r="N99" s="13">
         <v>508.51</v>
       </c>
-      <c r="O99" s="15"/>
+      <c r="O99" s="14"/>
       <c r="Q99" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R99" s="14">
+      <c r="R99" s="13">
         <v>519.71</v>
       </c>
-      <c r="S99" s="15"/>
+      <c r="S99" s="14"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
@@ -7044,112 +7034,112 @@
       <c r="A129" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B129" s="12">
+      <c r="B129" s="11">
         <v>18</v>
       </c>
-      <c r="C129" s="13"/>
+      <c r="C129" s="12"/>
       <c r="E129" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F129" s="12">
+      <c r="F129" s="11">
         <v>79</v>
       </c>
-      <c r="G129" s="13"/>
+      <c r="G129" s="12"/>
       <c r="I129" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J129" s="12">
+      <c r="J129" s="11">
         <v>83</v>
       </c>
-      <c r="K129" s="13"/>
+      <c r="K129" s="12"/>
       <c r="M129" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N129" s="12">
+      <c r="N129" s="11">
         <v>88</v>
       </c>
-      <c r="O129" s="13"/>
+      <c r="O129" s="12"/>
       <c r="Q129" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R129" s="12">
+      <c r="R129" s="11">
         <v>92</v>
       </c>
-      <c r="S129" s="13"/>
+      <c r="S129" s="12"/>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B130" s="14">
+      <c r="B130" s="13">
         <v>127.3</v>
       </c>
-      <c r="C130" s="15"/>
+      <c r="C130" s="14"/>
       <c r="E130" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F130" s="14">
+      <c r="F130" s="13">
         <v>128.65</v>
       </c>
-      <c r="G130" s="15"/>
+      <c r="G130" s="14"/>
       <c r="I130" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J130" s="14">
+      <c r="J130" s="13">
         <v>134.05000000000001</v>
       </c>
-      <c r="K130" s="15"/>
+      <c r="K130" s="14"/>
       <c r="M130" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N130" s="14">
+      <c r="N130" s="13">
         <v>131.03</v>
       </c>
-      <c r="O130" s="15"/>
+      <c r="O130" s="14"/>
       <c r="Q130" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R130" s="14">
+      <c r="R130" s="13">
         <v>132.72999999999999</v>
       </c>
-      <c r="S130" s="15"/>
+      <c r="S130" s="14"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B131" s="14">
+      <c r="B131" s="13">
         <v>489.08</v>
       </c>
-      <c r="C131" s="15"/>
+      <c r="C131" s="14"/>
       <c r="E131" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F131" s="14">
+      <c r="F131" s="13">
         <v>524.82000000000005</v>
       </c>
-      <c r="G131" s="15"/>
+      <c r="G131" s="14"/>
       <c r="I131" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J131" s="14">
+      <c r="J131" s="13">
         <v>521.94000000000005</v>
       </c>
-      <c r="K131" s="15"/>
+      <c r="K131" s="14"/>
       <c r="M131" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N131" s="14">
+      <c r="N131" s="13">
         <v>538.47</v>
       </c>
-      <c r="O131" s="15"/>
+      <c r="O131" s="14"/>
       <c r="Q131" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R131" s="14">
+      <c r="R131" s="13">
         <v>538.38</v>
       </c>
-      <c r="S131" s="15"/>
+      <c r="S131" s="14"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
@@ -8606,112 +8596,112 @@
       <c r="A161" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B161" s="12">
+      <c r="B161" s="11">
         <v>93</v>
       </c>
-      <c r="C161" s="13"/>
+      <c r="C161" s="12"/>
       <c r="E161" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F161" s="12">
+      <c r="F161" s="11">
         <v>98</v>
       </c>
-      <c r="G161" s="13"/>
+      <c r="G161" s="12"/>
       <c r="I161" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J161" s="12">
+      <c r="J161" s="11">
         <v>99</v>
       </c>
-      <c r="K161" s="13"/>
+      <c r="K161" s="12"/>
       <c r="M161" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N161" s="12">
+      <c r="N161" s="11">
         <v>104</v>
       </c>
-      <c r="O161" s="13"/>
+      <c r="O161" s="12"/>
       <c r="Q161" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R161" s="12">
+      <c r="R161" s="11">
         <v>108</v>
       </c>
-      <c r="S161" s="13"/>
+      <c r="S161" s="12"/>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B162" s="14">
+      <c r="B162" s="13">
         <v>134.71</v>
       </c>
-      <c r="C162" s="15"/>
+      <c r="C162" s="14"/>
       <c r="E162" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F162" s="14">
+      <c r="F162" s="13">
         <v>134.47</v>
       </c>
-      <c r="G162" s="15"/>
+      <c r="G162" s="14"/>
       <c r="I162" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J162" s="14">
+      <c r="J162" s="13">
         <v>133.11000000000001</v>
       </c>
-      <c r="K162" s="15"/>
+      <c r="K162" s="14"/>
       <c r="M162" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N162" s="14">
+      <c r="N162" s="13">
         <v>125.64</v>
       </c>
-      <c r="O162" s="15"/>
+      <c r="O162" s="14"/>
       <c r="Q162" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R162" s="14">
+      <c r="R162" s="13">
         <v>123.32</v>
       </c>
-      <c r="S162" s="15"/>
+      <c r="S162" s="14"/>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B163" s="14">
+      <c r="B163" s="13">
         <v>537.11</v>
       </c>
-      <c r="C163" s="15"/>
+      <c r="C163" s="14"/>
       <c r="E163" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F163" s="14">
+      <c r="F163" s="13">
         <v>522.41999999999996</v>
       </c>
-      <c r="G163" s="15"/>
+      <c r="G163" s="14"/>
       <c r="I163" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J163" s="14">
+      <c r="J163" s="13">
         <v>548.57000000000005</v>
       </c>
-      <c r="K163" s="15"/>
+      <c r="K163" s="14"/>
       <c r="M163" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N163" s="14">
+      <c r="N163" s="13">
         <v>526.26</v>
       </c>
-      <c r="O163" s="15"/>
+      <c r="O163" s="14"/>
       <c r="Q163" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R163" s="14">
+      <c r="R163" s="13">
         <v>522.21</v>
       </c>
-      <c r="S163" s="15"/>
+      <c r="S163" s="14"/>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
@@ -10168,112 +10158,112 @@
       <c r="A193" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B193" s="12">
+      <c r="B193" s="11">
         <v>111</v>
       </c>
-      <c r="C193" s="13"/>
+      <c r="C193" s="12"/>
       <c r="E193" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F193" s="12">
+      <c r="F193" s="11">
         <v>112</v>
       </c>
-      <c r="G193" s="13"/>
+      <c r="G193" s="12"/>
       <c r="I193" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J193" s="12">
+      <c r="J193" s="11">
         <v>113</v>
       </c>
-      <c r="K193" s="13"/>
+      <c r="K193" s="12"/>
       <c r="M193" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N193" s="12">
+      <c r="N193" s="11">
         <v>114</v>
       </c>
-      <c r="O193" s="13"/>
+      <c r="O193" s="12"/>
       <c r="Q193" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R193" s="12">
+      <c r="R193" s="11">
         <v>117</v>
       </c>
-      <c r="S193" s="13"/>
+      <c r="S193" s="12"/>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B194" s="14">
+      <c r="B194" s="13">
         <v>140.28</v>
       </c>
-      <c r="C194" s="15"/>
+      <c r="C194" s="14"/>
       <c r="E194" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F194" s="14">
+      <c r="F194" s="13">
         <v>128.27000000000001</v>
       </c>
-      <c r="G194" s="15"/>
+      <c r="G194" s="14"/>
       <c r="I194" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J194" s="14">
+      <c r="J194" s="13">
         <v>126.88</v>
       </c>
-      <c r="K194" s="15"/>
+      <c r="K194" s="14"/>
       <c r="M194" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N194" s="14">
+      <c r="N194" s="13">
         <v>128.84</v>
       </c>
-      <c r="O194" s="15"/>
+      <c r="O194" s="14"/>
       <c r="Q194" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R194" s="14">
+      <c r="R194" s="13">
         <v>138.13</v>
       </c>
-      <c r="S194" s="15"/>
+      <c r="S194" s="14"/>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B195" s="14">
+      <c r="B195" s="13">
         <v>536</v>
       </c>
-      <c r="C195" s="15"/>
+      <c r="C195" s="14"/>
       <c r="E195" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F195" s="14">
+      <c r="F195" s="13">
         <v>539.89</v>
       </c>
-      <c r="G195" s="15"/>
+      <c r="G195" s="14"/>
       <c r="I195" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J195" s="14">
+      <c r="J195" s="13">
         <v>528.07000000000005</v>
       </c>
-      <c r="K195" s="15"/>
+      <c r="K195" s="14"/>
       <c r="M195" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N195" s="14">
+      <c r="N195" s="13">
         <v>527.82000000000005</v>
       </c>
-      <c r="O195" s="15"/>
+      <c r="O195" s="14"/>
       <c r="Q195" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R195" s="14">
+      <c r="R195" s="13">
         <v>546.96</v>
       </c>
-      <c r="S195" s="15"/>
+      <c r="S195" s="14"/>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
@@ -11852,432 +11842,432 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="16">
+      <c r="A1" s="15">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <f>A1+1</f>
         <v>2</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <f t="shared" ref="A3:A39" si="0">A2+1</f>
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="24">
+      <c r="B3" s="16"/>
+      <c r="C3" s="23">
         <v>1000</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="24">
+      <c r="B4" s="16"/>
+      <c r="C4" s="23">
         <v>1000</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="24">
+      <c r="B5" s="16"/>
+      <c r="C5" s="23">
         <v>1000</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="24">
+      <c r="B6" s="16"/>
+      <c r="C6" s="23">
         <v>1000</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="18"/>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="19"/>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20">
+      <c r="A39" s="19">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="23"/>
+      <c r="D39" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -12366,10 +12356,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D344A339-077D-4CAF-8392-DAA2F3AE9C2C}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12420,315 +12410,297 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>100</v>
+      <c r="A5" s="8">
+        <v>77</v>
       </c>
       <c r="B5" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!M5:M31,Planilha1!O5:O31,)</f>
-        <v>659.67478399999993</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!Q5:Q31,Planilha1!S5:S31)</f>
+        <v>640.89606400000002</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="9">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="10">
+        <f>_xlfn.XLOOKUP(E5,$A$2:$A$34,$B$2:$B$34)</f>
+        <v>631.67953599999998</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!Q5:Q31,Planilha1!S5:S31)</f>
-        <v>640.89606400000002</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!A37:A63,Planilha1!C37:C63)</f>
+        <v>659.370048</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="9">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="10">
-        <f>_xlfn.XLOOKUP(E6,$A$2:$A$36,$B$2:$B$36)</f>
-        <v>670.96062400000005</v>
+        <f>_xlfn.XLOOKUP(E6,$A$2:$A$34,$B$2:$B$34)</f>
+        <v>635.18012799999997</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!A37:A63,Planilha1!C37:C63)</f>
-        <v>659.370048</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="9">
-        <v>9</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="10">
-        <f>_xlfn.XLOOKUP(E7,$A$2:$A$36,$B$2:$B$36)</f>
-        <v>635.18012799999997</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!E37:E63,Planilha1!G37:G63)</f>
+        <v>655.71331199999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B8" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!E37:E63,Planilha1!G37:G63)</f>
-        <v>655.71331199999997</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!I37:I63,Planilha1!K37:K63)</f>
+        <v>657.77595199999996</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B9" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!I37:I63,Planilha1!K37:K63)</f>
-        <v>657.77595199999996</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!M37:M63,Planilha1!O37:O63)</f>
+        <v>631.67953599999998</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B10" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!M37:M63,Planilha1!O37:O63)</f>
-        <v>631.67953599999998</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!Q37:Q63,Planilha1!S37:S63)</f>
+        <v>674.3503199999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B11" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!Q37:Q63,Planilha1!S37:S63)</f>
-        <v>674.3503199999999</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!A69:A95,Planilha1!C69:C95)</f>
+        <v>648.93356799999992</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B12" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!A69:A95,Planilha1!C69:C95)</f>
-        <v>648.93356799999992</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!E69:E95,Planilha1!G69:G95)</f>
+        <v>663.23990399999991</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B13" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!E69:E95,Planilha1!G69:G95)</f>
-        <v>663.23990399999991</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!I69:I95,Planilha1!K69:K95)</f>
+        <v>643.06801599999994</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B14" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!I69:I95,Planilha1!K69:K95)</f>
-        <v>643.06801599999994</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!M69:M95,Planilha1!O69:O95)</f>
+        <v>660.99049600000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B15" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!M69:M95,Planilha1!O69:O95)</f>
-        <v>660.99049600000001</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!Q69:Q95,Planilha1!S69:S95)</f>
+        <v>682.64375999999993</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B16" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!Q69:Q95,Planilha1!S69:S95)</f>
-        <v>682.64375999999993</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!E101:E127,Planilha1!G101:G127)</f>
+        <v>634.01347199999998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>7</v>
+      <c r="A17" s="8">
+        <v>19</v>
       </c>
       <c r="B17" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!A101:A127,Planilha1!C101:C127)</f>
-        <v>685.09899199999995</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!I101:I127,Planilha1!K101:K127)</f>
+        <v>640.69598399999995</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B18" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!E101:E127,Planilha1!G101:G127)</f>
-        <v>634.01347199999998</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!M101:M127,Planilha1!O101:O127)</f>
+        <v>636.94638399999997</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B19" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!I101:I127,Planilha1!K101:K127)</f>
-        <v>640.69598399999995</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!Q101:Q127,Planilha1!S101:S127)</f>
+        <v>647.45846400000005</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!M101:M127,Planilha1!O101:O127)</f>
-        <v>636.94638399999997</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!A133:A159,Planilha1!C133:C159,)</f>
+        <v>615.59747199999993</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B21" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!Q101:Q127,Planilha1!S101:S127)</f>
-        <v>647.45846400000005</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!E133:E159,Planilha1!G133:G159)</f>
+        <v>652.63028799999995</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="B22" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!A133:A159,Planilha1!C133:C159,)</f>
-        <v>615.59747199999993</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!I133:I159,Planilha1!K133:K159)</f>
+        <v>655.15489600000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B23" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!E133:E159,Planilha1!G133:G159)</f>
-        <v>652.63028799999995</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!M133:M159,Planilha1!O133:O159)</f>
+        <v>668.63844799999993</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B24" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!I133:I159,Planilha1!K133:K159)</f>
-        <v>655.15489600000001</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!Q133:Q159,Planilha1!S133:S159)</f>
+        <v>670.24859200000003</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B25" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!M133:M159,Planilha1!O133:O159)</f>
-        <v>668.63844799999993</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!A165:A191,Planilha1!C165:C191)</f>
+        <v>670.96062400000005</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B26" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!Q133:Q159,Planilha1!S133:S159)</f>
-        <v>670.24859200000003</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!E165:E191,Planilha1!G165:G191)</f>
+        <v>656.05412799999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B27" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!A165:A191,Planilha1!C165:C191)</f>
-        <v>670.96062400000005</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!I165:I191,Planilha1!K165:K191)</f>
+        <v>680.80228800000009</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B28" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!E165:E191,Planilha1!G165:G191)</f>
-        <v>656.05412799999999</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!M165:M191,Planilha1!O165:O191)</f>
+        <v>651.05798399999992</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B29" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!I165:I191,Planilha1!K165:K191)</f>
-        <v>680.80228800000009</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!Q165:Q191,Planilha1!S165:S191)</f>
+        <v>644.69446399999993</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B30" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!M165:M191,Planilha1!O165:O191)</f>
-        <v>651.05798399999992</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!A197:A223,Planilha1!C197:C223)</f>
+        <v>675.42239999999993</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B31" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!Q165:Q191,Planilha1!S165:S191)</f>
-        <v>644.69446399999993</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!E197:E223,Planilha1!G197:G223)</f>
+        <v>667.29617599999995</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B32" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!A197:A223,Planilha1!C197:C223)</f>
-        <v>675.42239999999993</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!I197:I223,Planilha1!K197:K223)</f>
+        <v>654.10508800000002</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B33" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!E197:E223,Planilha1!G197:G223)</f>
-        <v>667.29617599999995</v>
+        <f>_xlfn.XLOOKUP(E4,Planilha1!M197:M223,Planilha1!O197:O223)</f>
+        <v>655.81548800000007</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B34" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!I197:I223,Planilha1!K197:K223)</f>
-        <v>654.10508800000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>114</v>
-      </c>
-      <c r="B35" s="10">
-        <f>_xlfn.XLOOKUP(E4,Planilha1!M197:M223,Planilha1!O197:O223)</f>
-        <v>655.81548800000007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>117</v>
-      </c>
-      <c r="B36" s="10">
         <f>_xlfn.XLOOKUP(E4,Planilha1!Q197:Q223,Planilha1!S197:S223)</f>
         <v>684.21486400000003</v>
       </c>
